--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/human/Desktop/dl_tutorials_4th/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/human/Dropbox/Personal/github/dl_tutorials_10weeks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19180" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="16920" yWindow="460" windowWidth="19200" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,27 +62,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Theory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / Paper</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -130,7 +109,7 @@
 5. Learning Deep Features for Discriminative Localization 
 6. Is object localization for free? – Weakly-supervised learning with convolutional neural networks</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -979,31 +958,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Texture Synthesis
-2. Neural Style</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- : neural_style.ipynb</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
@@ -1065,6 +1019,74 @@
       </rPr>
       <t xml:space="preserve">
  - A Practical Guide to Training Restricted Boltzmann Machines (RBM)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Neural Style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ : neural_style.ipynb
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Fine-tuning CNN (optional)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ : cnn_finetune_vgg.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Theory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Paper</t>
     </r>
   </si>
 </sst>
@@ -1072,7 +1094,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1083,19 +1105,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color rgb="FFC00000"/>
       <name val="Calibri (Body)"/>
     </font>
@@ -1156,6 +1165,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1234,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1242,7 +1272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1254,23 +1284,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1552,7 +1591,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1573,20 +1612,20 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="B3" s="14"/>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
+      <c r="B4" s="15"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -1597,10 +1636,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -1608,10 +1647,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.2">
@@ -1619,10 +1658,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.2">
@@ -1630,10 +1669,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="94" customHeight="1" x14ac:dyDescent="0.2">
@@ -1641,10 +1680,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.2">
@@ -1652,10 +1691,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="136" customHeight="1" x14ac:dyDescent="0.2">
@@ -1663,10 +1702,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="107" customHeight="1" x14ac:dyDescent="0.2">
@@ -1674,10 +1713,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.2">
@@ -1685,10 +1724,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="189" customHeight="1" x14ac:dyDescent="0.2">
@@ -1696,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
@@ -1718,10 +1757,11 @@
       <c r="B18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/human/Dropbox/Personal/github/dl_tutorials_10weeks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/D/Dropbox/Personal/github/dl_tutorials_10weeks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="460" windowWidth="19200" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="7020" yWindow="460" windowWidth="13460" windowHeight="11300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1296,13 +1296,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="87" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,16 +1614,16 @@
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15"/>
-      <c r="C4" s="12"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
